--- a/Code/Results/Cases/Case_3_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_197/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.65969548453525</v>
+        <v>12.4792979961822</v>
       </c>
       <c r="C2">
-        <v>7.017959147754066</v>
+        <v>7.93558209730972</v>
       </c>
       <c r="D2">
-        <v>5.456092179827383</v>
+        <v>8.424016779254796</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.16303123477309</v>
+        <v>38.43214631172326</v>
       </c>
       <c r="G2">
-        <v>2.129098303761792</v>
+        <v>3.696992972455111</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.36814322694815</v>
+        <v>29.06301824678741</v>
       </c>
       <c r="J2">
-        <v>6.446376053969119</v>
+        <v>10.87162690171373</v>
       </c>
       <c r="K2">
-        <v>10.72862411430835</v>
+        <v>9.746763163101811</v>
       </c>
       <c r="L2">
-        <v>7.012128411340393</v>
+        <v>11.72846626682434</v>
       </c>
       <c r="M2">
-        <v>9.90941946158442</v>
+        <v>15.29062946722657</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.84194199423169</v>
+        <v>29.47963852309263</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.81281562384116</v>
+        <v>12.27646224116472</v>
       </c>
       <c r="C3">
-        <v>6.896568625201231</v>
+        <v>7.896550223921045</v>
       </c>
       <c r="D3">
-        <v>5.306449231791735</v>
+        <v>8.413461695005585</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.15593044828219</v>
+        <v>38.53557918211512</v>
       </c>
       <c r="G3">
-        <v>2.133683325697088</v>
+        <v>3.698740068981173</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.55942419866256</v>
+        <v>29.16373847256676</v>
       </c>
       <c r="J3">
-        <v>6.498117789459773</v>
+        <v>10.89162479851963</v>
       </c>
       <c r="K3">
-        <v>10.12812352285911</v>
+        <v>9.597112243137619</v>
       </c>
       <c r="L3">
-        <v>6.936935288516745</v>
+        <v>11.73685527144248</v>
       </c>
       <c r="M3">
-        <v>9.600415900459856</v>
+        <v>15.26288465786565</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.9539359297558</v>
+        <v>29.57365006101284</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.26169006223174</v>
+        <v>12.15207091575254</v>
       </c>
       <c r="C4">
-        <v>6.82089106028351</v>
+        <v>7.872211261532594</v>
       </c>
       <c r="D4">
-        <v>5.21422432114523</v>
+        <v>8.408019066720966</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.16888564739341</v>
+        <v>38.60608122061988</v>
       </c>
       <c r="G4">
-        <v>2.13659083192109</v>
+        <v>3.699870451771593</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.68696243232772</v>
+        <v>29.22996718555612</v>
       </c>
       <c r="J4">
-        <v>6.531072935013138</v>
+        <v>10.90458675209637</v>
       </c>
       <c r="K4">
-        <v>9.740398948354782</v>
+        <v>9.505327402630574</v>
       </c>
       <c r="L4">
-        <v>6.892792848551873</v>
+        <v>11.74328114455768</v>
       </c>
       <c r="M4">
-        <v>9.408621324218506</v>
+        <v>15.24762871338478</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.03475298803508</v>
+        <v>29.63626498576981</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.02923135676399</v>
+        <v>12.10148066502587</v>
       </c>
       <c r="C5">
-        <v>6.789781023086052</v>
+        <v>7.862201868319188</v>
       </c>
       <c r="D5">
-        <v>5.176608152109591</v>
+        <v>8.406064136626254</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.17839079600712</v>
+        <v>38.63656859509847</v>
       </c>
       <c r="G5">
-        <v>2.137799308394216</v>
+        <v>3.700345634794531</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.74140046446347</v>
+        <v>29.25805935554513</v>
       </c>
       <c r="J5">
-        <v>6.544803348013666</v>
+        <v>10.9100411076358</v>
       </c>
       <c r="K5">
-        <v>9.577672265362192</v>
+        <v>9.467993466641504</v>
       </c>
       <c r="L5">
-        <v>6.875323440719182</v>
+        <v>11.74622108367374</v>
       </c>
       <c r="M5">
-        <v>9.330055089323142</v>
+        <v>15.24186364669993</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.07061522300708</v>
+        <v>29.66301067275804</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.99301366937323</v>
+        <v>12.09308807880952</v>
       </c>
       <c r="C6">
-        <v>6.784599372583713</v>
+        <v>7.860534397080345</v>
       </c>
       <c r="D6">
-        <v>5.17036156264913</v>
+        <v>8.40575545899331</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.18022056110675</v>
+        <v>38.64173708762859</v>
       </c>
       <c r="G6">
-        <v>2.138001415555149</v>
+        <v>3.700425418226363</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.75058672371312</v>
+        <v>29.26279069902854</v>
       </c>
       <c r="J6">
-        <v>6.547101529180602</v>
+        <v>10.91095721670311</v>
       </c>
       <c r="K6">
-        <v>9.550368147305013</v>
+        <v>9.461799651405336</v>
       </c>
       <c r="L6">
-        <v>6.872454261847359</v>
+        <v>11.74672868738742</v>
       </c>
       <c r="M6">
-        <v>9.316987953167184</v>
+        <v>15.24093377586143</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.07674408497754</v>
+        <v>29.66752602638395</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.25858696397983</v>
+        <v>12.15138814933827</v>
       </c>
       <c r="C7">
-        <v>6.8204725733073</v>
+        <v>7.872076636414854</v>
       </c>
       <c r="D7">
-        <v>5.213717081687907</v>
+        <v>8.407991634594387</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.16899689780563</v>
+        <v>38.60648527109554</v>
       </c>
       <c r="G7">
-        <v>2.136607033554383</v>
+        <v>3.699876801313493</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.68768671336253</v>
+        <v>29.23034157794061</v>
       </c>
       <c r="J7">
-        <v>6.531256886033289</v>
+        <v>10.90465961336959</v>
       </c>
       <c r="K7">
-        <v>9.738223408512473</v>
+        <v>9.504823566330932</v>
       </c>
       <c r="L7">
-        <v>6.89255513684328</v>
+        <v>11.74331949155088</v>
       </c>
       <c r="M7">
-        <v>9.407563253760996</v>
+        <v>15.24754912852918</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.03522491301594</v>
+        <v>29.63662070941387</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.37412920403698</v>
+        <v>12.40936615013307</v>
       </c>
       <c r="C8">
-        <v>6.976350697180932</v>
+        <v>7.922203039784821</v>
       </c>
       <c r="D8">
-        <v>5.404597336286788</v>
+        <v>8.420163083321368</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.15691262707101</v>
+        <v>38.46635757135143</v>
       </c>
       <c r="G8">
-        <v>2.130660335286277</v>
+        <v>3.697583430953381</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.43195758423096</v>
+        <v>29.09683655764572</v>
       </c>
       <c r="J8">
-        <v>6.463972268695017</v>
+        <v>10.8783806673635</v>
       </c>
       <c r="K8">
-        <v>10.52554655284001</v>
+        <v>9.695168527063158</v>
       </c>
       <c r="L8">
-        <v>6.985787156199399</v>
+        <v>11.73109462480651</v>
       </c>
       <c r="M8">
-        <v>9.803367710868647</v>
+        <v>15.28069643172624</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.87799359964829</v>
+        <v>29.51103824517437</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.31651683279764</v>
+        <v>12.91375953415896</v>
       </c>
       <c r="C9">
-        <v>7.272278672787584</v>
+        <v>8.017418903157793</v>
       </c>
       <c r="D9">
-        <v>5.774022207382166</v>
+        <v>8.452180757794739</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.27622317896049</v>
+        <v>38.24712070963571</v>
       </c>
       <c r="G9">
-        <v>2.119710311990093</v>
+        <v>3.693541616999373</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.01403257991423</v>
+        <v>28.86981189216834</v>
       </c>
       <c r="J9">
-        <v>6.341302361470611</v>
+        <v>10.83224703277197</v>
       </c>
       <c r="K9">
-        <v>11.91692954183332</v>
+        <v>10.0673478929454</v>
       </c>
       <c r="L9">
-        <v>7.184244288549083</v>
+        <v>11.71720494334051</v>
       </c>
       <c r="M9">
-        <v>10.55870643622914</v>
+        <v>15.35961562358296</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.67003830892938</v>
+        <v>29.30360031161193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.5967750512926</v>
+        <v>13.27990283222834</v>
       </c>
       <c r="C10">
-        <v>7.482937063451961</v>
+        <v>8.085336744759342</v>
       </c>
       <c r="D10">
-        <v>6.039796123475884</v>
+        <v>8.480547284031715</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.4585561409379</v>
+        <v>38.11999009142019</v>
       </c>
       <c r="G10">
-        <v>2.112068579266097</v>
+        <v>3.690846946503629</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.7631311256971</v>
+        <v>28.72418612050431</v>
       </c>
       <c r="J10">
-        <v>6.256642546239689</v>
+        <v>10.80161440744329</v>
       </c>
       <c r="K10">
-        <v>12.84481538147868</v>
+        <v>10.33764874572119</v>
       </c>
       <c r="L10">
-        <v>7.338942647429871</v>
+        <v>11.71310126770668</v>
       </c>
       <c r="M10">
-        <v>11.09563615434982</v>
+        <v>15.42579819721248</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.5852116240012</v>
+        <v>29.17488962739817</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.14790740890193</v>
+        <v>13.44479732892777</v>
       </c>
       <c r="C11">
-        <v>7.577156390822534</v>
+        <v>8.115758399545598</v>
       </c>
       <c r="D11">
-        <v>6.158988923254527</v>
+        <v>8.494474389501338</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.56359962524696</v>
+        <v>38.0695386733229</v>
       </c>
       <c r="G11">
-        <v>2.10867263693538</v>
+        <v>3.6896801525485</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.66243809581977</v>
+        <v>28.66252743321432</v>
       </c>
       <c r="J11">
-        <v>6.219273448939404</v>
+        <v>10.78838076944836</v>
       </c>
       <c r="K11">
-        <v>13.24636005673166</v>
+        <v>10.45943112592059</v>
       </c>
       <c r="L11">
-        <v>7.411107366729611</v>
+        <v>11.71254849829986</v>
       </c>
       <c r="M11">
-        <v>11.33504719952496</v>
+        <v>15.45762155752524</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.56290830797251</v>
+        <v>29.12148539062632</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.3521596817203</v>
+        <v>13.50694270833723</v>
       </c>
       <c r="C12">
-        <v>7.612592642581277</v>
+        <v>8.127207154844569</v>
       </c>
       <c r="D12">
-        <v>6.2038427142896</v>
+        <v>8.499892633132307</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.60667526443935</v>
+        <v>38.05149621953588</v>
       </c>
       <c r="G12">
-        <v>2.107397619678553</v>
+        <v>3.689246760445915</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.62635546775796</v>
+        <v>28.63983816295829</v>
       </c>
       <c r="J12">
-        <v>6.205283694121356</v>
+        <v>10.78346990499494</v>
       </c>
       <c r="K12">
-        <v>13.39546096227634</v>
+        <v>10.50533736828677</v>
       </c>
       <c r="L12">
-        <v>7.438679649236719</v>
+        <v>11.71252712889711</v>
       </c>
       <c r="M12">
-        <v>11.42494358466303</v>
+        <v>15.46991310059421</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.55693533248618</v>
+        <v>29.10200314048614</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.30836745095559</v>
+        <v>13.49357266039737</v>
       </c>
       <c r="C13">
-        <v>7.60497175890406</v>
+        <v>8.124744678190988</v>
       </c>
       <c r="D13">
-        <v>6.194195721040425</v>
+        <v>8.498719342609585</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.59724960658363</v>
+        <v>38.05533471970309</v>
       </c>
       <c r="G13">
-        <v>2.107671740228879</v>
+        <v>3.689339724125845</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.63403352864738</v>
+        <v>28.64469537155176</v>
       </c>
       <c r="J13">
-        <v>6.208289525458677</v>
+        <v>10.78452308762445</v>
       </c>
       <c r="K13">
-        <v>13.36348077808409</v>
+        <v>10.4954606102253</v>
       </c>
       <c r="L13">
-        <v>7.432730763232809</v>
+        <v>11.71252338845258</v>
       </c>
       <c r="M13">
-        <v>11.40561771777877</v>
+        <v>15.46725529026391</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.55810961576691</v>
+        <v>29.10616603527599</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.16480027476852</v>
+        <v>13.4499163282644</v>
       </c>
       <c r="C14">
-        <v>7.580076671575867</v>
+        <v>8.116701741104773</v>
       </c>
       <c r="D14">
-        <v>6.16268491522265</v>
+        <v>8.494917274896137</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.56707671404013</v>
+        <v>38.06803301241096</v>
       </c>
       <c r="G14">
-        <v>2.108567524540446</v>
+        <v>3.689644328049718</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.65942783399458</v>
+        <v>28.66064755569058</v>
       </c>
       <c r="J14">
-        <v>6.218119293447407</v>
+        <v>10.78797473934952</v>
       </c>
       <c r="K14">
-        <v>13.2586858817668</v>
+        <v>10.46321229734591</v>
       </c>
       <c r="L14">
-        <v>7.413370914723435</v>
+        <v>11.7125429793024</v>
       </c>
       <c r="M14">
-        <v>11.34245868219486</v>
+        <v>15.45862800147891</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.56236658544298</v>
+        <v>29.11986772427227</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.07628315270815</v>
+        <v>13.42313529103668</v>
       </c>
       <c r="C15">
-        <v>7.564795821942975</v>
+        <v>8.111765839365285</v>
       </c>
       <c r="D15">
-        <v>6.143345914211345</v>
+        <v>8.49260711342006</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.5490279349643</v>
+        <v>38.07594946701459</v>
       </c>
       <c r="G15">
-        <v>2.109117626306929</v>
+        <v>3.689832005665669</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.67525277805925</v>
+        <v>28.67050461764266</v>
       </c>
       <c r="J15">
-        <v>6.224161193463459</v>
+        <v>10.79010204190836</v>
       </c>
       <c r="K15">
-        <v>13.19411123366491</v>
+        <v>10.44343073720601</v>
       </c>
       <c r="L15">
-        <v>7.401543994048744</v>
+        <v>11.71257942559807</v>
       </c>
       <c r="M15">
-        <v>11.30367069013485</v>
+        <v>15.45337470237742</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.56530008613742</v>
+        <v>29.12835689427293</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.56013206559072</v>
+        <v>13.26908813333391</v>
       </c>
       <c r="C16">
-        <v>7.4767462310384</v>
+        <v>8.083338810290076</v>
       </c>
       <c r="D16">
-        <v>6.031969020614147</v>
+        <v>8.479657467848087</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.45214635144606</v>
+        <v>38.12343582628587</v>
       </c>
       <c r="G16">
-        <v>2.112292078019571</v>
+        <v>3.690924383516939</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.76999177157872</v>
+        <v>28.72830795816769</v>
       </c>
       <c r="J16">
-        <v>6.259107429248691</v>
+        <v>10.80249333281975</v>
       </c>
       <c r="K16">
-        <v>12.81815975712179</v>
+        <v>10.32966275217267</v>
       </c>
       <c r="L16">
-        <v>7.334261487915803</v>
+        <v>11.71316374942026</v>
       </c>
       <c r="M16">
-        <v>11.07988671372705</v>
+        <v>15.42375249030267</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.58700801176299</v>
+        <v>29.17848334544665</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.23551517550661</v>
+        <v>13.17411713227662</v>
       </c>
       <c r="C17">
-        <v>7.422309929712389</v>
+        <v>8.065776054321876</v>
       </c>
       <c r="D17">
-        <v>5.963178180899857</v>
+        <v>8.471973378253118</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.3984594759123</v>
+        <v>38.15445840054463</v>
       </c>
       <c r="G17">
-        <v>2.114259658630904</v>
+        <v>3.691609610923308</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.83163318340453</v>
+        <v>28.76494325235914</v>
       </c>
       <c r="J17">
-        <v>6.280836286624243</v>
+        <v>10.81027430826645</v>
       </c>
       <c r="K17">
-        <v>12.58225920765442</v>
+        <v>10.25953845062073</v>
       </c>
       <c r="L17">
-        <v>7.293435749762901</v>
+        <v>11.71385806791419</v>
       </c>
       <c r="M17">
-        <v>10.94131190859324</v>
+        <v>15.40601560274506</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.60458815272519</v>
+        <v>29.21055302017566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.04585863257383</v>
+        <v>13.11933877631088</v>
       </c>
       <c r="C18">
-        <v>7.390848612915797</v>
+        <v>8.055629938905289</v>
       </c>
       <c r="D18">
-        <v>5.923452555448168</v>
+        <v>8.467650158685142</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.3696533571691</v>
+        <v>38.17299644358632</v>
       </c>
       <c r="G18">
-        <v>2.115398956794533</v>
+        <v>3.692009293719437</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.86834570682293</v>
+        <v>28.78644667870355</v>
       </c>
       <c r="J18">
-        <v>6.293441942411845</v>
+        <v>10.81481575369674</v>
       </c>
       <c r="K18">
-        <v>12.44464020771399</v>
+        <v>10.21909617693474</v>
       </c>
       <c r="L18">
-        <v>7.270123254273127</v>
+        <v>11.71438116591752</v>
       </c>
       <c r="M18">
-        <v>10.86115513552311</v>
+        <v>15.3959757672882</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.61622451252087</v>
+        <v>29.22948306162905</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98113690942983</v>
+        <v>13.10076717329328</v>
       </c>
       <c r="C19">
-        <v>7.380170778038261</v>
+        <v>8.052187091169825</v>
       </c>
       <c r="D19">
-        <v>5.909976007373978</v>
+        <v>8.46620304092168</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.36025244335968</v>
+        <v>38.17939238360364</v>
       </c>
       <c r="G19">
-        <v>2.115786026173473</v>
+        <v>3.692145575291808</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.8809886427141</v>
+        <v>28.79380153035822</v>
       </c>
       <c r="J19">
-        <v>6.297728612291402</v>
+        <v>10.81636476333804</v>
       </c>
       <c r="K19">
-        <v>12.39771249426813</v>
+        <v>10.20538572440538</v>
       </c>
       <c r="L19">
-        <v>7.262259522060252</v>
+        <v>11.71457956076583</v>
       </c>
       <c r="M19">
-        <v>10.83393995759934</v>
+        <v>15.39260444960057</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.6204223227692</v>
+        <v>29.23597562631135</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.27037571484698</v>
+        <v>13.18424327030819</v>
       </c>
       <c r="C20">
-        <v>7.428120479004366</v>
+        <v>8.067650265468775</v>
       </c>
       <c r="D20">
-        <v>5.970517808871329</v>
+        <v>8.472781398493352</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.40395908984998</v>
+        <v>38.15108408979948</v>
       </c>
       <c r="G20">
-        <v>2.114049424190159</v>
+        <v>3.691536092344875</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.82494034627666</v>
+        <v>28.76099867652206</v>
       </c>
       <c r="J20">
-        <v>6.27851208000614</v>
+        <v>10.80943917890532</v>
       </c>
       <c r="K20">
-        <v>12.60757153163899</v>
+        <v>10.26701484434022</v>
       </c>
       <c r="L20">
-        <v>7.297764279735277</v>
+        <v>11.71377135653461</v>
       </c>
       <c r="M20">
-        <v>10.95611075071092</v>
+        <v>15.40788700671819</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.60255797518851</v>
+        <v>29.20708900879205</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.20708982225228</v>
+        <v>13.46274774229997</v>
       </c>
       <c r="C21">
-        <v>7.587395625500489</v>
+        <v>8.119066104890349</v>
       </c>
       <c r="D21">
-        <v>6.171948323103495</v>
+        <v>8.496030139298872</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.57584878066848</v>
+        <v>38.0642743754292</v>
       </c>
       <c r="G21">
-        <v>2.108304118661184</v>
+        <v>3.689554629551617</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.6519123860603</v>
+        <v>28.65594411357159</v>
       </c>
       <c r="J21">
-        <v>6.215227706189718</v>
+        <v>10.78695818332325</v>
       </c>
       <c r="K21">
-        <v>13.28954685441347</v>
+        <v>10.4726904257501</v>
       </c>
       <c r="L21">
-        <v>7.419050819573441</v>
+        <v>11.71253213226215</v>
       </c>
       <c r="M21">
-        <v>11.36103123185338</v>
+        <v>15.4611555619252</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.56104803665191</v>
+        <v>29.11582309654629</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.79337324466615</v>
+        <v>13.64301317130349</v>
       </c>
       <c r="C22">
-        <v>7.69007328460918</v>
+        <v>8.152252545379088</v>
       </c>
       <c r="D22">
-        <v>6.301937472879635</v>
+        <v>8.512064558356116</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.70746458597103</v>
+        <v>38.01373205043986</v>
       </c>
       <c r="G22">
-        <v>2.104612765986879</v>
+        <v>3.688308848792273</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.5508227528031</v>
+        <v>28.59112913607564</v>
       </c>
       <c r="J22">
-        <v>6.174805218500462</v>
+        <v>10.77285072746606</v>
       </c>
       <c r="K22">
-        <v>13.71803575557406</v>
+        <v>10.60586906263024</v>
       </c>
       <c r="L22">
-        <v>7.499741395381826</v>
+        <v>11.71281725603844</v>
       </c>
       <c r="M22">
-        <v>11.62119561464563</v>
+        <v>15.49736978823223</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.54839561004071</v>
+        <v>29.06049363776793</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.48281830120627</v>
+        <v>13.54698071824671</v>
       </c>
       <c r="C23">
-        <v>7.635405260567006</v>
+        <v>8.134579450621954</v>
       </c>
       <c r="D23">
-        <v>6.232722395870465</v>
+        <v>8.50343076797275</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.63541632835179</v>
+        <v>38.04014050369486</v>
       </c>
       <c r="G23">
-        <v>2.106577303264834</v>
+        <v>3.688969255047631</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.60363878351646</v>
+        <v>28.62537038708241</v>
       </c>
       <c r="J23">
-        <v>6.196294777388275</v>
+        <v>10.78032673591386</v>
       </c>
       <c r="K23">
-        <v>13.49091712523137</v>
+        <v>10.53491575019192</v>
       </c>
       <c r="L23">
-        <v>7.456549219238717</v>
+        <v>11.71256522933994</v>
       </c>
       <c r="M23">
-        <v>11.48277034609492</v>
+        <v>15.47791553943512</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.55377960384687</v>
+        <v>29.08962869553209</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.25462470616045</v>
+        <v>13.17966579418746</v>
       </c>
       <c r="C24">
-        <v>7.425494043257769</v>
+        <v>8.066803087180437</v>
       </c>
       <c r="D24">
-        <v>5.967200111141367</v>
+        <v>8.472415798096252</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.40146630964227</v>
+        <v>38.15260742674273</v>
       </c>
       <c r="G24">
-        <v>2.114144445875569</v>
+        <v>3.691569312222331</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.82796221811472</v>
+        <v>28.76278064459688</v>
       </c>
       <c r="J24">
-        <v>6.279562500212552</v>
+        <v>10.80981652886038</v>
       </c>
       <c r="K24">
-        <v>12.59613404899093</v>
+        <v>10.26363515883256</v>
       </c>
       <c r="L24">
-        <v>7.295806855859611</v>
+        <v>11.71381017266508</v>
       </c>
       <c r="M24">
-        <v>10.94942170984437</v>
+        <v>15.4070404544342</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.60347106490074</v>
+        <v>29.20865355346937</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.81702716285184</v>
+        <v>12.77783822113218</v>
       </c>
       <c r="C25">
-        <v>7.193354900767286</v>
+        <v>7.99200677314699</v>
       </c>
       <c r="D25">
-        <v>5.674894984586413</v>
+        <v>8.442659054267095</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.22785092593309</v>
+        <v>38.30047425420076</v>
       </c>
       <c r="G25">
-        <v>2.122599475447744</v>
+        <v>3.694586565618506</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.11763319504285</v>
+        <v>28.92750827413558</v>
       </c>
       <c r="J25">
-        <v>6.373514098054359</v>
+        <v>10.84415246683529</v>
       </c>
       <c r="K25">
-        <v>11.5570371213257</v>
+        <v>9.967039589939967</v>
       </c>
       <c r="L25">
-        <v>7.128946919347164</v>
+        <v>11.71988753689704</v>
       </c>
       <c r="M25">
-        <v>10.35718166500575</v>
+        <v>15.33680420976069</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.71486578670111</v>
+        <v>29.35555843935219</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_197/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_197/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.4792979961822</v>
+        <v>12.65969548453531</v>
       </c>
       <c r="C2">
-        <v>7.93558209730972</v>
+        <v>7.017959147753797</v>
       </c>
       <c r="D2">
-        <v>8.424016779254796</v>
+        <v>5.456092179827295</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.43214631172326</v>
+        <v>25.16303123477266</v>
       </c>
       <c r="G2">
-        <v>3.696992972455111</v>
+        <v>2.129098303761659</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.06301824678741</v>
+        <v>18.36814322694779</v>
       </c>
       <c r="J2">
-        <v>10.87162690171373</v>
+        <v>6.446376053969119</v>
       </c>
       <c r="K2">
-        <v>9.746763163101811</v>
+        <v>10.7286241143084</v>
       </c>
       <c r="L2">
-        <v>11.72846626682434</v>
+        <v>7.012128411340384</v>
       </c>
       <c r="M2">
-        <v>15.29062946722657</v>
+        <v>9.909419461584344</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.47963852309263</v>
+        <v>18.84194199423136</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.27646224116472</v>
+        <v>11.81281562384114</v>
       </c>
       <c r="C3">
-        <v>7.896550223921045</v>
+        <v>6.896568625201217</v>
       </c>
       <c r="D3">
-        <v>8.413461695005585</v>
+        <v>5.306449231791827</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.53557918211512</v>
+        <v>25.1559304482821</v>
       </c>
       <c r="G3">
-        <v>3.698740068981173</v>
+        <v>2.133683325696953</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.16373847256676</v>
+        <v>18.55942419866242</v>
       </c>
       <c r="J3">
-        <v>10.89162479851963</v>
+        <v>6.498117789459834</v>
       </c>
       <c r="K3">
-        <v>9.597112243137619</v>
+        <v>10.12812352285909</v>
       </c>
       <c r="L3">
-        <v>11.73685527144248</v>
+        <v>6.936935288516817</v>
       </c>
       <c r="M3">
-        <v>15.26288465786565</v>
+        <v>9.60041590045989</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.57365006101284</v>
+        <v>18.95393592975567</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.15207091575254</v>
+        <v>11.26169006223166</v>
       </c>
       <c r="C4">
-        <v>7.872211261532594</v>
+        <v>6.820891060284011</v>
       </c>
       <c r="D4">
-        <v>8.408019066720966</v>
+        <v>5.214224321145262</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.60608122061988</v>
+        <v>25.16888564739367</v>
       </c>
       <c r="G4">
-        <v>3.699870451771593</v>
+        <v>2.136590831921359</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.22996718555612</v>
+        <v>18.68696243232796</v>
       </c>
       <c r="J4">
-        <v>10.90458675209637</v>
+        <v>6.531072935013138</v>
       </c>
       <c r="K4">
-        <v>9.505327402630574</v>
+        <v>9.740398948354777</v>
       </c>
       <c r="L4">
-        <v>11.74328114455768</v>
+        <v>6.892792848551824</v>
       </c>
       <c r="M4">
-        <v>15.24762871338478</v>
+        <v>9.408621324218524</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.63626498576981</v>
+        <v>19.0347529880352</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.10148066502587</v>
+        <v>11.02923135676398</v>
       </c>
       <c r="C5">
-        <v>7.862201868319188</v>
+        <v>6.789781023086038</v>
       </c>
       <c r="D5">
-        <v>8.406064136626254</v>
+        <v>5.176608152109485</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.63656859509847</v>
+        <v>25.17839079600711</v>
       </c>
       <c r="G5">
-        <v>3.700345634794531</v>
+        <v>2.137799308394083</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.25805935554513</v>
+        <v>18.74140046446353</v>
       </c>
       <c r="J5">
-        <v>10.9100411076358</v>
+        <v>6.544803348013732</v>
       </c>
       <c r="K5">
-        <v>9.467993466641504</v>
+        <v>9.577672265362155</v>
       </c>
       <c r="L5">
-        <v>11.74622108367374</v>
+        <v>6.875323440719177</v>
       </c>
       <c r="M5">
-        <v>15.24186364669993</v>
+        <v>9.330055089323158</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.66301067275804</v>
+        <v>19.07061522300715</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.09308807880952</v>
+        <v>10.99301366937323</v>
       </c>
       <c r="C6">
-        <v>7.860534397080345</v>
+        <v>6.784599372583447</v>
       </c>
       <c r="D6">
-        <v>8.40575545899331</v>
+        <v>5.17036156264908</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.64173708762859</v>
+        <v>25.18022056110635</v>
       </c>
       <c r="G6">
-        <v>3.700425418226363</v>
+        <v>2.138001415555149</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.26279069902854</v>
+        <v>18.75058672371278</v>
       </c>
       <c r="J6">
-        <v>10.91095721670311</v>
+        <v>6.547101529180503</v>
       </c>
       <c r="K6">
-        <v>9.461799651405336</v>
+        <v>9.550368147305036</v>
       </c>
       <c r="L6">
-        <v>11.74672868738742</v>
+        <v>6.872454261847303</v>
       </c>
       <c r="M6">
-        <v>15.24093377586143</v>
+        <v>9.316987953167116</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.66752602638395</v>
+        <v>19.07674408497725</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.15138814933827</v>
+        <v>11.25858696397978</v>
       </c>
       <c r="C7">
-        <v>7.872076636414854</v>
+        <v>6.820472573307157</v>
       </c>
       <c r="D7">
-        <v>8.407991634594387</v>
+        <v>5.213717081687763</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.60648527109554</v>
+        <v>25.16899689780581</v>
       </c>
       <c r="G7">
-        <v>3.699876801313493</v>
+        <v>2.136607033554383</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.23034157794061</v>
+        <v>18.68768671336272</v>
       </c>
       <c r="J7">
-        <v>10.90465961336959</v>
+        <v>6.531256886033324</v>
       </c>
       <c r="K7">
-        <v>9.504823566330932</v>
+        <v>9.738223408512384</v>
       </c>
       <c r="L7">
-        <v>11.74331949155088</v>
+        <v>6.892555136843284</v>
       </c>
       <c r="M7">
-        <v>15.24754912852918</v>
+        <v>9.407563253761007</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.63662070941387</v>
+        <v>19.03522491301624</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.40936615013307</v>
+        <v>12.37412920403695</v>
       </c>
       <c r="C8">
-        <v>7.922203039784821</v>
+        <v>6.976350697180925</v>
       </c>
       <c r="D8">
-        <v>8.420163083321368</v>
+        <v>5.404597336286776</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.46635757135143</v>
+        <v>25.15691262707105</v>
       </c>
       <c r="G8">
-        <v>3.697583430953381</v>
+        <v>2.13066033528601</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.09683655764572</v>
+        <v>18.431957584231</v>
       </c>
       <c r="J8">
-        <v>10.8783806673635</v>
+        <v>6.463972268695054</v>
       </c>
       <c r="K8">
-        <v>9.695168527063158</v>
+        <v>10.52554655283998</v>
       </c>
       <c r="L8">
-        <v>11.73109462480651</v>
+        <v>6.985787156199379</v>
       </c>
       <c r="M8">
-        <v>15.28069643172624</v>
+        <v>9.803367710868633</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.51103824517437</v>
+        <v>18.87799359964835</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.91375953415896</v>
+        <v>14.31651683279764</v>
       </c>
       <c r="C9">
-        <v>8.017418903157793</v>
+        <v>7.272278672787576</v>
       </c>
       <c r="D9">
-        <v>8.452180757794739</v>
+        <v>5.774022207382218</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>38.24712070963571</v>
+        <v>25.27622317896047</v>
       </c>
       <c r="G9">
-        <v>3.693541616999373</v>
+        <v>2.119710311990228</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.86981189216834</v>
+        <v>18.01403257991415</v>
       </c>
       <c r="J9">
-        <v>10.83224703277197</v>
+        <v>6.341302361470584</v>
       </c>
       <c r="K9">
-        <v>10.0673478929454</v>
+        <v>11.91692954183332</v>
       </c>
       <c r="L9">
-        <v>11.71720494334051</v>
+        <v>7.184244288549095</v>
       </c>
       <c r="M9">
-        <v>15.35961562358296</v>
+        <v>10.55870643622913</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.30360031161193</v>
+        <v>18.67003830892932</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.27990283222834</v>
+        <v>15.59677505129267</v>
       </c>
       <c r="C10">
-        <v>8.085336744759342</v>
+        <v>7.482937063451951</v>
       </c>
       <c r="D10">
-        <v>8.480547284031715</v>
+        <v>6.03979612347598</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.11999009142019</v>
+        <v>25.45855614093765</v>
       </c>
       <c r="G10">
-        <v>3.690846946503629</v>
+        <v>2.112068579266232</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.72418612050431</v>
+        <v>17.76313112569679</v>
       </c>
       <c r="J10">
-        <v>10.80161440744329</v>
+        <v>6.256642546239559</v>
       </c>
       <c r="K10">
-        <v>10.33764874572119</v>
+        <v>12.84481538147874</v>
       </c>
       <c r="L10">
-        <v>11.71310126770668</v>
+        <v>7.338942647429849</v>
       </c>
       <c r="M10">
-        <v>15.42579819721248</v>
+        <v>11.09563615434979</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.17488962739817</v>
+        <v>18.58521162400091</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.44479732892777</v>
+        <v>16.14790740890191</v>
       </c>
       <c r="C11">
-        <v>8.115758399545598</v>
+        <v>7.577156390822299</v>
       </c>
       <c r="D11">
-        <v>8.494474389501338</v>
+        <v>6.158988923254486</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.0695386733229</v>
+        <v>25.56359962524699</v>
       </c>
       <c r="G11">
-        <v>3.6896801525485</v>
+        <v>2.108672636934979</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.66252743321432</v>
+        <v>17.66243809581983</v>
       </c>
       <c r="J11">
-        <v>10.78838076944836</v>
+        <v>6.219273448939532</v>
       </c>
       <c r="K11">
-        <v>10.45943112592059</v>
+        <v>13.24636005673159</v>
       </c>
       <c r="L11">
-        <v>11.71254849829986</v>
+        <v>7.411107366729648</v>
       </c>
       <c r="M11">
-        <v>15.45762155752524</v>
+        <v>11.335047199525</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.12148539062632</v>
+        <v>18.56290830797261</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.50694270833723</v>
+        <v>16.35215968172033</v>
       </c>
       <c r="C12">
-        <v>8.127207154844569</v>
+        <v>7.612592642581298</v>
       </c>
       <c r="D12">
-        <v>8.499892633132307</v>
+        <v>6.203842714289554</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.05149621953588</v>
+        <v>25.60667526443917</v>
       </c>
       <c r="G12">
-        <v>3.689246760445915</v>
+        <v>2.10739761967842</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.63983816295829</v>
+        <v>17.62635546775783</v>
       </c>
       <c r="J12">
-        <v>10.78346990499494</v>
+        <v>6.205283694121388</v>
       </c>
       <c r="K12">
-        <v>10.50533736828677</v>
+        <v>13.39546096227638</v>
       </c>
       <c r="L12">
-        <v>11.71252712889711</v>
+        <v>7.438679649236722</v>
       </c>
       <c r="M12">
-        <v>15.46991310059421</v>
+        <v>11.42494358466302</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.10200314048614</v>
+        <v>18.55693533248606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.49357266039737</v>
+        <v>16.30836745095557</v>
       </c>
       <c r="C13">
-        <v>8.124744678190988</v>
+        <v>7.604971758903957</v>
       </c>
       <c r="D13">
-        <v>8.498719342609585</v>
+        <v>6.194195721040479</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.05533471970309</v>
+        <v>25.5972496065837</v>
       </c>
       <c r="G13">
-        <v>3.689339724125845</v>
+        <v>2.107671740228879</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.64469537155176</v>
+        <v>17.63403352864738</v>
       </c>
       <c r="J13">
-        <v>10.78452308762445</v>
+        <v>6.208289525458645</v>
       </c>
       <c r="K13">
-        <v>10.4954606102253</v>
+        <v>13.36348077808408</v>
       </c>
       <c r="L13">
-        <v>11.71252338845258</v>
+        <v>7.43273076323288</v>
       </c>
       <c r="M13">
-        <v>15.46725529026391</v>
+        <v>11.4056177177788</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.10616603527599</v>
+        <v>18.55810961576693</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.4499163282644</v>
+        <v>16.16480027476861</v>
       </c>
       <c r="C14">
-        <v>8.116701741104773</v>
+        <v>7.580076671575744</v>
       </c>
       <c r="D14">
-        <v>8.494917274896137</v>
+        <v>6.162684915222642</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.06803301241096</v>
+        <v>25.56707671403996</v>
       </c>
       <c r="G14">
-        <v>3.689644328049718</v>
+        <v>2.108567524540446</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.66064755569058</v>
+        <v>17.65942783399439</v>
       </c>
       <c r="J14">
-        <v>10.78797473934952</v>
+        <v>6.218119293447534</v>
       </c>
       <c r="K14">
-        <v>10.46321229734591</v>
+        <v>13.25868588176684</v>
       </c>
       <c r="L14">
-        <v>11.7125429793024</v>
+        <v>7.413370914723563</v>
       </c>
       <c r="M14">
-        <v>15.45862800147891</v>
+        <v>11.34245868219489</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.11986772427227</v>
+        <v>18.56236658544282</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.42313529103668</v>
+        <v>16.07628315270822</v>
       </c>
       <c r="C15">
-        <v>8.111765839365285</v>
+        <v>7.564795821943091</v>
       </c>
       <c r="D15">
-        <v>8.49260711342006</v>
+        <v>6.143345914211368</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.07594946701459</v>
+        <v>25.54902793496408</v>
       </c>
       <c r="G15">
-        <v>3.689832005665669</v>
+        <v>2.109117626306661</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.67050461764266</v>
+        <v>17.67525277805909</v>
       </c>
       <c r="J15">
-        <v>10.79010204190836</v>
+        <v>6.224161193463494</v>
       </c>
       <c r="K15">
-        <v>10.44343073720601</v>
+        <v>13.19411123366501</v>
       </c>
       <c r="L15">
-        <v>11.71257942559807</v>
+        <v>7.401543994048724</v>
       </c>
       <c r="M15">
-        <v>15.45337470237742</v>
+        <v>11.30367069013483</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.12835689427293</v>
+        <v>18.56530008613721</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.26908813333391</v>
+        <v>15.56013206559074</v>
       </c>
       <c r="C16">
-        <v>8.083338810290076</v>
+        <v>7.476746231038497</v>
       </c>
       <c r="D16">
-        <v>8.479657467848087</v>
+        <v>6.031969020614154</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.12343582628587</v>
+        <v>25.45214635144606</v>
       </c>
       <c r="G16">
-        <v>3.690924383516939</v>
+        <v>2.11229207801957</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.72830795816769</v>
+        <v>17.76999177157876</v>
       </c>
       <c r="J16">
-        <v>10.80249333281975</v>
+        <v>6.25910742924879</v>
       </c>
       <c r="K16">
-        <v>10.32966275217267</v>
+        <v>12.81815975712183</v>
       </c>
       <c r="L16">
-        <v>11.71316374942026</v>
+        <v>7.334261487915813</v>
       </c>
       <c r="M16">
-        <v>15.42375249030267</v>
+        <v>11.07988671372704</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.17848334544665</v>
+        <v>18.58700801176299</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.17411713227662</v>
+        <v>15.23551517550663</v>
       </c>
       <c r="C17">
-        <v>8.065776054321876</v>
+        <v>7.422309929712609</v>
       </c>
       <c r="D17">
-        <v>8.471973378253118</v>
+        <v>5.963178180899784</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.15445840054463</v>
+        <v>25.39845947591206</v>
       </c>
       <c r="G17">
-        <v>3.691609610923308</v>
+        <v>2.114259658630637</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.76494325235914</v>
+        <v>17.83163318340439</v>
       </c>
       <c r="J17">
-        <v>10.81027430826645</v>
+        <v>6.280836286624212</v>
       </c>
       <c r="K17">
-        <v>10.25953845062073</v>
+        <v>12.58225920765447</v>
       </c>
       <c r="L17">
-        <v>11.71385806791419</v>
+        <v>7.293435749762825</v>
       </c>
       <c r="M17">
-        <v>15.40601560274506</v>
+        <v>10.94131190859319</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.21055302017566</v>
+        <v>18.60458815272501</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.11933877631088</v>
+        <v>15.0458586325738</v>
       </c>
       <c r="C18">
-        <v>8.055629938905289</v>
+        <v>7.390848612915901</v>
       </c>
       <c r="D18">
-        <v>8.467650158685142</v>
+        <v>5.923452555448161</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.17299644358632</v>
+        <v>25.36965335716925</v>
       </c>
       <c r="G18">
-        <v>3.692009293719437</v>
+        <v>2.1153989567944</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.78644667870355</v>
+        <v>17.86834570682304</v>
       </c>
       <c r="J18">
-        <v>10.81481575369674</v>
+        <v>6.293441942411879</v>
       </c>
       <c r="K18">
-        <v>10.21909617693474</v>
+        <v>12.44464020771396</v>
       </c>
       <c r="L18">
-        <v>11.71438116591752</v>
+        <v>7.270123254273117</v>
       </c>
       <c r="M18">
-        <v>15.3959757672882</v>
+        <v>10.86115513552313</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.22948306162905</v>
+        <v>18.61622451252098</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.10076717329328</v>
+        <v>14.98113690942991</v>
       </c>
       <c r="C19">
-        <v>8.052187091169825</v>
+        <v>7.380170778038122</v>
       </c>
       <c r="D19">
-        <v>8.46620304092168</v>
+        <v>5.909976007373922</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.17939238360364</v>
+        <v>25.36025244335948</v>
       </c>
       <c r="G19">
-        <v>3.692145575291808</v>
+        <v>2.115786026173607</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.79380153035822</v>
+        <v>17.88098864271391</v>
       </c>
       <c r="J19">
-        <v>10.81636476333804</v>
+        <v>6.297728612291567</v>
       </c>
       <c r="K19">
-        <v>10.20538572440538</v>
+        <v>12.39771249426813</v>
       </c>
       <c r="L19">
-        <v>11.71457956076583</v>
+        <v>7.262259522060358</v>
       </c>
       <c r="M19">
-        <v>15.39260444960057</v>
+        <v>10.83393995759934</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.23597562631135</v>
+        <v>18.62042232276907</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.18424327030819</v>
+        <v>15.27037571484698</v>
       </c>
       <c r="C20">
-        <v>8.067650265468775</v>
+        <v>7.428120479004122</v>
       </c>
       <c r="D20">
-        <v>8.472781398493352</v>
+        <v>5.970517808871283</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.15108408979948</v>
+        <v>25.4039590898499</v>
       </c>
       <c r="G20">
-        <v>3.691536092344875</v>
+        <v>2.114049424189894</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.76099867652206</v>
+        <v>17.82494034627655</v>
       </c>
       <c r="J20">
-        <v>10.80943917890532</v>
+        <v>6.278512080006108</v>
       </c>
       <c r="K20">
-        <v>10.26701484434022</v>
+        <v>12.60757153163895</v>
       </c>
       <c r="L20">
-        <v>11.71377135653461</v>
+        <v>7.297764279735315</v>
       </c>
       <c r="M20">
-        <v>15.40788700671819</v>
+        <v>10.95611075071092</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.20708900879205</v>
+        <v>18.60255797518846</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.46274774229997</v>
+        <v>16.20708982225236</v>
       </c>
       <c r="C21">
-        <v>8.119066104890349</v>
+        <v>7.587395625500489</v>
       </c>
       <c r="D21">
-        <v>8.496030139298872</v>
+        <v>6.17194832310346</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.0642743754292</v>
+        <v>25.57584878066821</v>
       </c>
       <c r="G21">
-        <v>3.689554629551617</v>
+        <v>2.108304118661186</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.65594411357159</v>
+        <v>17.65191238606007</v>
       </c>
       <c r="J21">
-        <v>10.78695818332325</v>
+        <v>6.215227706189619</v>
       </c>
       <c r="K21">
-        <v>10.4726904257501</v>
+        <v>13.28954685441356</v>
       </c>
       <c r="L21">
-        <v>11.71253213226215</v>
+        <v>7.419050819573402</v>
       </c>
       <c r="M21">
-        <v>15.4611555619252</v>
+        <v>11.36103123185331</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.11582309654629</v>
+        <v>18.5610480366517</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.64301317130349</v>
+        <v>16.79337324466618</v>
       </c>
       <c r="C22">
-        <v>8.152252545379088</v>
+        <v>7.690073284609032</v>
       </c>
       <c r="D22">
-        <v>8.512064558356116</v>
+        <v>6.301937472879573</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.01373205043986</v>
+        <v>25.70746458597097</v>
       </c>
       <c r="G22">
-        <v>3.688308848792273</v>
+        <v>2.104612765986878</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.59112913607564</v>
+        <v>17.55082275280302</v>
       </c>
       <c r="J22">
-        <v>10.77285072746606</v>
+        <v>6.174805218500299</v>
       </c>
       <c r="K22">
-        <v>10.60586906263024</v>
+        <v>13.71803575557406</v>
       </c>
       <c r="L22">
-        <v>11.71281725603844</v>
+        <v>7.499741395381808</v>
       </c>
       <c r="M22">
-        <v>15.49736978823223</v>
+        <v>11.62119561464561</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.06049363776793</v>
+        <v>18.54839561004064</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.54698071824671</v>
+        <v>16.48281830120627</v>
       </c>
       <c r="C23">
-        <v>8.134579450621954</v>
+        <v>7.635405260567015</v>
       </c>
       <c r="D23">
-        <v>8.50343076797275</v>
+        <v>6.232722395870413</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.04014050369486</v>
+        <v>25.63541632835168</v>
       </c>
       <c r="G23">
-        <v>3.688969255047631</v>
+        <v>2.106577303264835</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.62537038708241</v>
+        <v>17.60363878351638</v>
       </c>
       <c r="J23">
-        <v>10.78032673591386</v>
+        <v>6.196294777388307</v>
       </c>
       <c r="K23">
-        <v>10.53491575019192</v>
+        <v>13.49091712523135</v>
       </c>
       <c r="L23">
-        <v>11.71256522933994</v>
+        <v>7.456549219238743</v>
       </c>
       <c r="M23">
-        <v>15.47791553943512</v>
+        <v>11.48277034609493</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.08962869553209</v>
+        <v>18.55377960384681</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.17966579418746</v>
+        <v>15.25462470616042</v>
       </c>
       <c r="C24">
-        <v>8.066803087180437</v>
+        <v>7.425494043257884</v>
       </c>
       <c r="D24">
-        <v>8.472415798096252</v>
+        <v>5.967200111141344</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.15260742674273</v>
+        <v>25.40146630964225</v>
       </c>
       <c r="G24">
-        <v>3.691569312222331</v>
+        <v>2.114144445875702</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.76278064459688</v>
+        <v>17.82796221811476</v>
       </c>
       <c r="J24">
-        <v>10.80981652886038</v>
+        <v>6.279562500212518</v>
       </c>
       <c r="K24">
-        <v>10.26363515883256</v>
+        <v>12.5961340489909</v>
       </c>
       <c r="L24">
-        <v>11.71381017266508</v>
+        <v>7.295806855859539</v>
       </c>
       <c r="M24">
-        <v>15.4070404544342</v>
+        <v>10.94942170984435</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.20865355346937</v>
+        <v>18.60347106490071</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.77783822113218</v>
+        <v>13.81702716285181</v>
       </c>
       <c r="C25">
-        <v>7.99200677314699</v>
+        <v>7.193354900767501</v>
       </c>
       <c r="D25">
-        <v>8.442659054267095</v>
+        <v>5.6748949845864</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.30047425420076</v>
+        <v>25.22785092593301</v>
       </c>
       <c r="G25">
-        <v>3.694586565618506</v>
+        <v>2.122599475447476</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.92750827413558</v>
+        <v>18.11763319504286</v>
       </c>
       <c r="J25">
-        <v>10.84415246683529</v>
+        <v>6.373514098054427</v>
       </c>
       <c r="K25">
-        <v>9.967039589939967</v>
+        <v>11.55703712132568</v>
       </c>
       <c r="L25">
-        <v>11.71988753689704</v>
+        <v>7.128946919347119</v>
       </c>
       <c r="M25">
-        <v>15.33680420976069</v>
+        <v>10.35718166500574</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.35555843935219</v>
+        <v>18.71486578670113</v>
       </c>
     </row>
   </sheetData>
